--- a/src/test/resources/testData/ExcelTest.xlsx
+++ b/src/test/resources/testData/ExcelTest.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C9F70641-D2E5-413E-A07B-C7AA68B08891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="885" yWindow="5430" windowWidth="19950" windowHeight="5835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -63,15 +65,6 @@
     <t>14,05,930</t>
   </si>
   <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>50,00,000</t>
-  </si>
-  <si>
-    <t>19,08,222</t>
-  </si>
-  <si>
     <t>Total Payment</t>
   </si>
   <si>
@@ -84,9 +77,6 @@
     <t>64,356</t>
   </si>
   <si>
-    <t>71,961</t>
-  </si>
-  <si>
     <t>25,49,645</t>
   </si>
   <si>
@@ -94,16 +84,13 @@
   </si>
   <si>
     <t>54,05,930</t>
-  </si>
-  <si>
-    <t>69,08,222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +133,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -192,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +219,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +271,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,16 +464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -452,7 +483,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,10 +503,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,16 +520,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -512,16 +543,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -535,37 +566,22 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -574,24 +590,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
